--- a/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/正式申报表格/XX发改委设备汇总表-2016_创新.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/建设经费/发改委0.8B/正式申报表格/XX发改委设备汇总表-2016_创新.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27120" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>创新开放实验室王德宇</t>
+  </si>
+  <si>
+    <t>大屏幕+电脑</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -421,15 +424,21 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2695</v>
+        <v>2752</v>
       </c>
       <c r="D2">
-        <v>348.5</v>
+        <v>708.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>951.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
